--- a/StructureDefinition-ext-R5-ExplanationOfBenefit.benefitBalance.xlsx
+++ b/StructureDefinition-ext-R5-ExplanationOfBenefit.benefitBalance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="239">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -410,15 +410,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Benefit categories such as: oral, medical, vision, oral-basic etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-ex-benefitcategory-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -560,12 +551,6 @@
     <t>Extension.extension:network.value[x]</t>
   </si>
   <si>
-    <t>Code to classify in or out of network services.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-network-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:unit</t>
   </si>
   <si>
@@ -597,12 +582,6 @@
     <t>Extension.extension:unit.value[x]</t>
   </si>
   <si>
-    <t>Unit covered/serviced - individual or family.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-unit-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:term</t>
   </si>
   <si>
@@ -634,12 +613,6 @@
     <t>Extension.extension:term.value[x]</t>
   </si>
   <si>
-    <t>Coverage unit - annual, lifetime.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-term-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:financial</t>
   </si>
   <si>
@@ -703,12 +676,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Deductable, visits, co-pay, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-benefit-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:financial.extension:allowed</t>
@@ -1151,8 +1118,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.5703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2072,43 +2039,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2116,13 +2083,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2147,14 +2114,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2223,7 +2190,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2326,7 +2293,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2431,7 +2398,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2474,7 +2441,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2536,7 +2503,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2562,13 +2529,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2619,7 +2586,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2631,7 +2598,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2639,13 +2606,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2670,16 +2637,16 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2748,7 +2715,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2851,7 +2818,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2956,7 +2923,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2999,7 +2966,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3061,7 +3028,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3090,13 +3057,13 @@
         <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3146,7 +3113,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3158,7 +3125,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3166,13 +3133,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3197,16 +3164,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3275,7 +3242,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3378,7 +3345,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3483,7 +3450,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3526,7 +3493,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3588,7 +3555,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3617,13 +3584,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3673,7 +3640,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3685,7 +3652,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -3693,13 +3660,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3724,14 +3691,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3800,7 +3767,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3903,7 +3870,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4008,7 +3975,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4051,7 +4018,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4113,7 +4080,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4142,10 +4109,10 @@
         <v>124</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4172,32 +4139,32 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4208,7 +4175,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4216,13 +4183,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4247,14 +4214,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4323,7 +4290,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4426,7 +4393,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4531,7 +4498,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4574,7 +4541,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4636,7 +4603,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4665,10 +4632,10 @@
         <v>124</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4695,32 +4662,32 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
@@ -4731,7 +4698,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>121</v>
@@ -4739,13 +4706,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4770,14 +4737,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4846,7 +4813,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -4949,7 +4916,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5054,7 +5021,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5097,7 +5064,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5159,7 +5126,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5188,10 +5155,10 @@
         <v>124</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5218,32 +5185,32 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
@@ -5254,7 +5221,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>121</v>
@@ -5262,13 +5229,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5293,14 +5260,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5369,7 +5336,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5472,7 +5439,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5575,13 +5542,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5609,13 +5576,13 @@
         <v>101</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5684,10 +5651,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5787,10 +5754,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5892,10 +5859,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5935,7 +5902,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5997,10 +5964,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6029,10 +5996,10 @@
         <v>101</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6058,32 +6025,32 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6094,7 +6061,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>121</v>
@@ -6102,13 +6069,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6133,14 +6100,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6209,10 +6176,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6312,10 +6279,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6417,10 +6384,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6460,7 +6427,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6522,10 +6489,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6548,13 +6515,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6605,7 +6572,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6617,7 +6584,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>121</v>
@@ -6625,13 +6592,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6656,14 +6623,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6732,10 +6699,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6835,10 +6802,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6940,10 +6907,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6983,7 +6950,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7045,10 +7012,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7071,13 +7038,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7128,7 +7095,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7140,7 +7107,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>121</v>
@@ -7148,7 +7115,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -7191,7 +7158,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7253,7 +7220,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -7279,13 +7246,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7336,7 +7303,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -7348,7 +7315,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>121</v>
@@ -7461,10 +7428,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7487,13 +7454,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7544,7 +7511,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -7556,7 +7523,7 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>121</v>
